--- a/excel_data/input_user.xlsx
+++ b/excel_data/input_user.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midaspavia/Documents/python_projects/excel_data_script/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A471573-265E-8447-B866-EE181A8FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ADF6E9-50CC-1D40-B417-EA213874B5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19860" yWindow="-28140" windowWidth="34160" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -43,9 +56,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>TR.EBITDA</t>
-  </si>
-  <si>
     <t>P/E</t>
   </si>
   <si>
@@ -56,6 +66,15 @@
   </si>
   <si>
     <t>Hermes</t>
+  </si>
+  <si>
+    <t>TR.EBIT(Period=FY-1)</t>
+  </si>
+  <si>
+    <t>TR.EBIT</t>
+  </si>
+  <si>
+    <t>TR.EBIT(Period=FY-2)</t>
   </si>
 </sst>
 </file>
@@ -426,7 +445,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -453,26 +472,34 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/input_user.xlsx
+++ b/excel_data/input_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midaspavia/Documents/python_projects/excel_data_script/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ADF6E9-50CC-1D40-B417-EA213874B5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C0E3C-3112-F243-92C3-B015ACCC0076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19860" yWindow="-28140" windowWidth="34160" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17780" yWindow="-28140" windowWidth="34160" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Hermes</t>
-  </si>
-  <si>
     <t>TR.EBIT(Period=FY-1)</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>TR.EBIT(Period=FY-2)</t>
+  </si>
+  <si>
+    <t>BIIB.O</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -471,17 +471,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -489,12 +489,12 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -504,5 +504,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/excel_data/input_user.xlsx
+++ b/excel_data/input_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midaspavia/Documents/python_projects/excel_data_script/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C0E3C-3112-F243-92C3-B015ACCC0076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE51EE2-CCE9-DE46-8C14-A17F395939C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17780" yWindow="-28140" windowWidth="34160" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,12 +56,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>P/E</t>
-  </si>
-  <si>
-    <t>Depreciation Rate</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -74,14 +68,22 @@
     <t>TR.EBIT(Period=FY-2)</t>
   </si>
   <si>
-    <t>BIIB.O</t>
+    <t>NESN.S</t>
+  </si>
+  <si>
+    <t>PepsiCo</t>
+  </si>
+  <si>
+    <t>Price
+Change
+YTD (Pct)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +98,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,10 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,7 +456,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -470,36 +481,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/input_user.xlsx
+++ b/excel_data/input_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midaspavia/Documents/python_projects/excel_data_script/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE51EE2-CCE9-DE46-8C14-A17F395939C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7CBBF6-89C0-B046-A1BA-2235D59C5167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17780" yWindow="-28140" windowWidth="34160" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -456,7 +456,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -485,7 +485,7 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -498,6 +498,9 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>

--- a/excel_data/input_user.xlsx
+++ b/excel_data/input_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midaspavia/Documents/python_projects/excel_data_script/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7CBBF6-89C0-B046-A1BA-2235D59C5167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4673E375-1A40-8347-AB96-4E34419598F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17780" yWindow="-28140" windowWidth="34160" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-360" yWindow="-13620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +41,9 @@
     <t>RIC</t>
   </si>
   <si>
+    <t>GICS Sector</t>
+  </si>
+  <si>
     <t>Sub-Industry</t>
   </si>
   <si>
@@ -53,37 +56,49 @@
     <t>Kennzahlen aus Refinitiv</t>
   </si>
   <si>
+    <t>NESN.S</t>
+  </si>
+  <si>
+    <t>CLN.S</t>
+  </si>
+  <si>
+    <t>RL.N</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
     <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>TR.EBIT(Period=FY-1)</t>
-  </si>
-  <si>
-    <t>TR.EBIT</t>
-  </si>
-  <si>
-    <t>TR.EBIT(Period=FY-2)</t>
-  </si>
-  <si>
-    <t>NESN.S</t>
-  </si>
-  <si>
-    <t>PepsiCo</t>
   </si>
   <si>
     <t>Price
 Change
 YTD (Pct)</t>
+  </si>
+  <si>
+    <t>TR.EBIT(Period=FY-1)</t>
+  </si>
+  <si>
+    <t>TR.EBIT(Period=FY-2)</t>
+  </si>
+  <si>
+    <t>TR.EBIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>KO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,12 +113,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,8 +155,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,40 +489,67 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
-        <v>7</v>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/input_user.xlsx
+++ b/excel_data/input_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midaspavia/Documents/python_projects/excel_data_script/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4673E375-1A40-8347-AB96-4E34419598F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318B898-9CE8-4B40-8B48-9168E9C0F566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-360" yWindow="-13620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -56,19 +56,7 @@
     <t>Kennzahlen aus Refinitiv</t>
   </si>
   <si>
-    <t>NESN.S</t>
-  </si>
-  <si>
-    <t>CLN.S</t>
-  </si>
-  <si>
-    <t>RL.N</t>
-  </si>
-  <si>
     <t>Consumer</t>
-  </si>
-  <si>
-    <t>Materials</t>
   </si>
   <si>
     <t>x</t>
@@ -92,6 +80,9 @@
   </si>
   <si>
     <t>KO</t>
+  </si>
+  <si>
+    <t>RL.N</t>
   </si>
 </sst>
 </file>
@@ -465,7 +456,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -495,61 +486,43 @@
     </row>
     <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/input_user.xlsx
+++ b/excel_data/input_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midaspavia/Documents/python_projects/excel_data_script/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318B898-9CE8-4B40-8B48-9168E9C0F566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863C61AA-35A5-764F-A5F2-A15F533814A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="-13620" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="5440" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -67,9 +67,6 @@
 YTD (Pct)</t>
   </si>
   <si>
-    <t>TR.EBIT(Period=FY-1)</t>
-  </si>
-  <si>
     <t>TR.EBIT(Period=FY-2)</t>
   </si>
   <si>
@@ -82,7 +79,13 @@
     <t>KO</t>
   </si>
   <si>
-    <t>RL.N</t>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>META.O</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -485,25 +488,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -512,17 +515,23 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/input_user.xlsx
+++ b/excel_data/input_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/midaspavia/Documents/python_projects/excel_data_script/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863C61AA-35A5-764F-A5F2-A15F533814A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E523B388-CA24-7C44-AC33-49E9143D40C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="5440" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -60,39 +60,51 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>TR.EBIT(Period=FY-2)</t>
+  </si>
+  <si>
+    <t>TR.EBIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>META.O</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Cash
+Ratio</t>
+  </si>
+  <si>
+    <t>Bad Debt
+Allowance
+(% of A/R)</t>
   </si>
   <si>
     <t>Price
 Change
-YTD (Pct)</t>
-  </si>
-  <si>
-    <t>TR.EBIT(Period=FY-2)</t>
-  </si>
-  <si>
-    <t>TR.EBIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>META.O</t>
-  </si>
-  <si>
-    <t>IT</t>
+MTD (Pct)</t>
+  </si>
+  <si>
+    <t>TR.EBITDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +119,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,13 +162,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +480,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -487,26 +508,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -514,24 +535,33 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
